--- a/docs/PTA2_DDC_100/PTA2_DDC_100_02.08.24_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_02.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731786825.7016866</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731786842.8849127</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731786825.7016866.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731786842.8849127.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>285.6</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>286.23</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.6299999999999955</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731786844.0151339</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731786845.8527622</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731786844.0151339.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731786845.8527622.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>287.76</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>286.15</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1.610000000000014</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -643,95 +671,107 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731786852.8820665</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731786852.8820665.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731786852.8820665.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>285.84</v>
       </c>
-      <c r="J5" t="n">
-        <v>285.84</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>286.24</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.4000000000000341</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731786858.9206808</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731786869.0759277</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731786858.9206808.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731786869.0759277.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>131.41</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>131.33</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.07999999999998408</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731786874.0374274</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731786875.268762</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731786874.0374274.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731786875.268762.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>130.74</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>131.27</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.5300000000000011</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731786875.282725</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731786875.6186776</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731786875.282725.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731786875.6186776.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>131.27</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>131.02</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.25</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731786878.8363917</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731786879.8329973</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731786878.8363917.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731786879.8329973.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6657.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6710.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>53</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731786882.9906685</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731786892.3963654</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731786882.9906685.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731786892.3963654.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6650.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6662.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>12</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731786894.5197656</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731786897.1268985</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731786894.5197656.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731786897.1268985.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6601</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6599.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-1.5</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731786900.0662947</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731786900.3393774</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731786900.0662947.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731786900.3393774.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6601.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6596</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>5.5</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731786910.2663648</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731786911.6991503</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731786910.2663648.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731786911.6991503.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>504.1</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>506.95</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>2.849999999999966</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731786918.3818583</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731786918.7896676</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731786918.3818583.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731786918.7896676.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>504.25</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>504.65</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731786922.6717591</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731786934.0924094</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731786922.6717591.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731786934.0924094.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>228.3</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>228.97</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.6699999999999875</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731786935.9203608</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731786938.2967987</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731786935.9203608.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731786938.2967987.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>230.28</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>229.66</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.6200000000000045</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731786945.087443</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731786945.7108326</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731786945.087443.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731786945.7108326.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>230.16</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>230.24</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.08000000000001251</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731786950.1313682</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731786959.8931284</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731786950.1313682.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731786959.8931284.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1026</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1026.6</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.5999999999999091</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731786965.5785646</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731786966.1090522</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731786965.5785646.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731786966.1090522.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1018</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1020.4</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>2.399999999999977</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731786966.7068875</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731786968.0954444</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731786966.7068875.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731786968.0954444.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1018</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1020</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>2</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1467,95 +1591,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731786972.233776</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731786972.233776.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731786972.233776.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>11.866</v>
       </c>
-      <c r="J21" t="n">
-        <v>11.866</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>11.869</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.003000000000000114</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731786973.3704293</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731786982.265821</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731786973.3704293.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731786982.265821.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>128.18</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>128.18</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731786987.7774892</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731786988.6972659</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731786987.7774892.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731786988.6972659.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>128.72</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>128</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.7199999999999989</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731787000.6446843</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731787008.8734012</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731787000.6446843.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731787008.8734012.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>163.86</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>165.28</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>1.419999999999987</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.8699999999999999</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731787010.321604</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731787012.5140145</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731787010.321604.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731787012.5140145.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>166</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>165.1</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.9000000000000057</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -1719,95 +1873,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731787018.9270482</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731787018.9270482.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731787018.9270482.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>165.66</v>
       </c>
-      <c r="J26" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>165.7</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.03999999999999204</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731787030.5603528</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731787033.44341</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731787030.5603528.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731787033.44341.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>50.27</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>50.4</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1815,51 +1981,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731787038.797204</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731787042.8957787</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731787038.797204.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731787042.8957787.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>50.345</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>50.375</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -1867,51 +2039,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731787054.4900208</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731787056.7924972</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731787054.4900208.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731787056.7924972.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1397.6</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1408</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>10.40000000000009</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.74</v>
       </c>
     </row>
@@ -1919,51 +2097,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731787058.763653</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731787061.64143</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731787058.763653.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731787061.64143.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1393.2</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1400</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>6.799999999999955</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -1971,95 +2155,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731787061.736911</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731787061.736911.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731787061.736911.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1400.2</v>
       </c>
-      <c r="J31" t="n">
-        <v>1400.2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1405.4</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-5.200000000000045</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731787073.702587</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731787078.806375</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731787073.702587.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731787078.806375.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>60.14</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>60.58</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -2067,51 +2263,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731787086.259857</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731787087.884125</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731787086.259857.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731787087.884125.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>60.25</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>60.27</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.02000000000000313</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -2119,43 +2321,49 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731787090.096705</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731787090.096705.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731787090.096705.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>97.59999999999999</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>97.59999999999999</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2163,51 +2371,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731787095.618887</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731787103.7384644</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/SELG1731787095.618887.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/SELG1731787103.7384644.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>56.63</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>57.16</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.529999999999994</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.9400000000000001</v>
       </c>
     </row>
@@ -2215,51 +2429,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731787111.640802</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731787112.3487012</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/SELG1731787111.640802.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/SELG1731787112.3487012.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>56.68</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>56.89</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.2100000000000009</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -2267,51 +2487,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731787112.8677197</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731787113.0389023</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/SELG1731787112.8677197.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/SELG1731787113.0389023.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>57.07</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>56.88</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -2319,43 +2545,49 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731787114.5266223</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731787114.5266223.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731787114.5266223.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>57.13</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>57.13</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2363,51 +2595,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731787128.5191743</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731787130.7717142</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731787128.5191743.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731787130.7717142.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>144.94</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>145.36</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.4200000000000159</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -2415,51 +2653,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731787135.4918075</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731787136.9303226</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731787135.4918075.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731787136.9303226.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>145.88</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>145.22</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.6599999999999966</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -2467,51 +2711,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731787141.7533274</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731787150.674397</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731787141.7533274.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731787150.674397.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>20.645</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>20.888</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.2430000000000021</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>1.18</v>
       </c>
     </row>
@@ -2519,51 +2769,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731787152.070932</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731787152.9705405</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731787152.070932.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731787152.9705405.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>21.113</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>20.849</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.2639999999999993</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>1.25</v>
       </c>
     </row>
@@ -2571,95 +2827,107 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731787157.7367382</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731787157.7367382.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731787157.7367382.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>20.789</v>
       </c>
-      <c r="J43" t="n">
-        <v>20.789</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>20.902</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.1129999999999995</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.54</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731787160.7106876</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731787174.9346445</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731787160.7106876.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731787174.9346445.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>676</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>672.15</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-3.850000000000023</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -2667,95 +2935,107 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731787180.1413267</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731787180.1413267.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731787180.1413267.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>674</v>
       </c>
-      <c r="J45" t="n">
-        <v>674</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>677.45</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-3.450000000000045</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731787183.3463619</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731787186.4973097</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/FEES1731787183.3463619.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/FEES1731787186.4973097.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>0.09868</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>0.10018</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.001500000000000001</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>1.52</v>
       </c>
     </row>
@@ -2763,51 +3043,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731787187.0315034</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731787190.2481785</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/FEES1731787187.0315034.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/FEES1731787190.2481785.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>0.10084</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>0.09968</v>
       </c>
-      <c r="K47" t="n">
-        <v>0.001160000000000008</v>
-      </c>
-      <c r="L47" t="n">
+      <c r="M47" t="n">
+        <v>0.001159999999999994</v>
+      </c>
+      <c r="N47" t="n">
         <v>1.15</v>
       </c>
     </row>
@@ -2815,51 +3101,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731787195.5087507</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731787196.097892</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/FEES1731787195.5087507.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/FEES1731787196.097892.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>0.09864000000000001</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>0.09976</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.001119999999999996</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>1.14</v>
       </c>
     </row>
@@ -2867,51 +3159,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731787201.9876432</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731787203.2165453</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/FEES1731787201.9876432.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/FEES1731787203.2165453.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>0.09882000000000001</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>0.099</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.0001799999999999996</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -2919,51 +3217,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731787205.2792203</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731787214.6688182</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731787205.2792203.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731787214.6688182.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>0.5979</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>0.6012000000000001</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.003300000000000081</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -2971,51 +3275,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731787217.3473</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731787220.5911157</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731787217.3473.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731787220.5911157.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>0.6022000000000001</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>0.6004</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.001800000000000024</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3023,51 +3333,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731787226.2293599</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731787226.75623</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787226.2293599.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787226.75623.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>2981.65</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>2990</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>8.349999999999909</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -3075,51 +3391,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731787229.648037</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731787233.0918329</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787229.648037.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787233.0918329.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>2980.45</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>2978</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-2.449999999999818</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3127,51 +3449,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731787234.1404197</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731787235.5059955</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787234.1404197.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787235.5059955.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>2966</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>2967.4</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3179,51 +3507,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731787236.9383693</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731787237.768966</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787236.9383693.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787237.768966.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>2955.5</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>2961.95</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>6.449999999999818</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -3231,51 +3565,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731787238.7780137</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731787239.4284701</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787238.7780137.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787239.4284701.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>2969.3</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>2963.3</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>6</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -3283,51 +3623,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731787240.406369</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731787241.777102</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787240.406369.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787241.777102.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>2977.5</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>2975</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>2.5</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3335,51 +3681,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731787242.5469773</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731787245.4028425</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787242.5469773.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MXI1731787245.4028425.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>2963.45</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>2966.75</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>3.300000000000182</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3387,51 +3739,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731787253.9579244</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731787261.9566822</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731787253.9579244.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731787261.9566822.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>34.235</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>34.45</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.2150000000000034</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -3559,13 +3917,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003960000000000005</v>
+        <v>0.003959999999999991</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0009900000000000013</v>
+        <v>0.0009899999999999978</v>
       </c>
       <c r="E5" t="n">
         <v>3.99</v>
@@ -3581,19 +3939,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.240000000000009</v>
+        <v>1.839999999999975</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7466666666666697</v>
+        <v>0.613333333333325</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7799999999999999</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.26</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="7">
@@ -3625,19 +3983,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.319999999999993</v>
+        <v>2.280000000000001</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7733333333333311</v>
+        <v>0.7600000000000003</v>
       </c>
       <c r="E8" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="F8" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="9">
@@ -3669,19 +4027,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5070000000000014</v>
+        <v>0.3940000000000019</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1690000000000005</v>
+        <v>0.131333333333334</v>
       </c>
       <c r="E10" t="n">
-        <v>2.43</v>
+        <v>1.89</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="11">
@@ -3713,19 +4071,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.20000000000005</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>5.733333333333348</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>1.23</v>
+        <v>0.86</v>
       </c>
       <c r="F12" t="n">
-        <v>0.41</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="13">
@@ -3845,19 +4203,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-3.850000000000023</v>
+        <v>-7.300000000000068</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.925000000000011</v>
+        <v>-3.650000000000034</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.5700000000000001</v>
+        <v>-1.08</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.29</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="19">
@@ -3911,19 +4269,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0.003000000000000114</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-0.003000000000000114</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="22">
